--- a/dataset_split_crop_yield_prediction.xlsx
+++ b/dataset_split_crop_yield_prediction.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedib\Downloads\archive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Lidia-Crop-Yield\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{178B4D03-B4D2-474B-9305-2ED5D04FF0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD71902F-7918-4359-A906-B4A6FC21BDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D98213B6-64C2-43E0-B502-C761A12DC979}"/>
   </bookViews>
@@ -23081,7 +23081,7 @@
   <dimension ref="A1:K501"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="P175" sqref="P175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
